--- a/gtwr.xlsx
+++ b/gtwr.xlsx
@@ -679,304 +679,304 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.94828076396566</v>
+        <v>30.69705065171291</v>
       </c>
       <c r="C2">
-        <v>29.23405772565738</v>
+        <v>27.24708871844062</v>
       </c>
       <c r="D2">
-        <v>29.70238243188955</v>
+        <v>25.14292889590966</v>
       </c>
       <c r="E2">
-        <v>27.36392272602324</v>
+        <v>30.33351562944351</v>
       </c>
       <c r="F2">
-        <v>28.5819990149021</v>
+        <v>26.67446087128749</v>
       </c>
       <c r="G2">
-        <v>27.8974263341584</v>
+        <v>28.96053240927973</v>
       </c>
       <c r="H2">
-        <v>26.06002165501241</v>
+        <v>25.56972919243284</v>
       </c>
       <c r="I2">
-        <v>25.3121778985981</v>
+        <v>30.70543561268027</v>
       </c>
       <c r="J2">
-        <v>29.86875695954508</v>
+        <v>25.03378001351699</v>
       </c>
       <c r="K2">
-        <v>25.62840383155305</v>
+        <v>27.26465441131679</v>
       </c>
       <c r="L2">
-        <v>23.69629487388642</v>
+        <v>29.04212172590634</v>
       </c>
       <c r="M2">
-        <v>29.72074658152316</v>
+        <v>27.91404689061706</v>
       </c>
       <c r="N2">
-        <v>27.14533329931069</v>
+        <v>27.89535247468451</v>
       </c>
       <c r="O2">
-        <v>29.6775331220981</v>
+        <v>31.99125259128654</v>
       </c>
       <c r="P2">
-        <v>28.60810826982586</v>
+        <v>28.43338278363791</v>
       </c>
       <c r="Q2">
-        <v>25.47934902746713</v>
+        <v>27.34043744464778</v>
       </c>
       <c r="R2">
-        <v>27.73013224156707</v>
+        <v>31.38804083372733</v>
       </c>
       <c r="S2">
-        <v>28.15535059550889</v>
+        <v>29.47941368031898</v>
       </c>
       <c r="T2">
-        <v>26.24772077915085</v>
+        <v>27.60598798815062</v>
       </c>
       <c r="U2">
-        <v>29.41233415548513</v>
+        <v>26.57468388784508</v>
       </c>
       <c r="V2">
-        <v>25.92131993810884</v>
+        <v>31.48378265920733</v>
       </c>
       <c r="W2">
-        <v>26.81659033374613</v>
+        <v>28.72750985397804</v>
       </c>
       <c r="X2">
-        <v>27.18606558734616</v>
+        <v>27.58466994207391</v>
       </c>
       <c r="Y2">
-        <v>26.41884294575599</v>
+        <v>31.84079083852711</v>
       </c>
       <c r="Z2">
-        <v>28.97336959068989</v>
+        <v>30.19948251114309</v>
       </c>
       <c r="AA2">
-        <v>27.34120106638846</v>
+        <v>26.51083381137341</v>
       </c>
       <c r="AB2">
-        <v>29.585199890641</v>
+        <v>28.86539348130927</v>
       </c>
       <c r="AC2">
-        <v>23.44651862134248</v>
+        <v>28.23358529764367</v>
       </c>
       <c r="AD2">
-        <v>23.73400104362135</v>
+        <v>31.85751631955391</v>
       </c>
       <c r="AE2">
-        <v>26.2040651204816</v>
+        <v>28.29786962765334</v>
       </c>
       <c r="AF2">
-        <v>22.63111591467001</v>
+        <v>28.08763098580983</v>
       </c>
       <c r="AG2">
-        <v>23.24838445387616</v>
+        <v>28.08578992625874</v>
       </c>
       <c r="AH2">
-        <v>27.39559778731311</v>
+        <v>26.41972237918726</v>
       </c>
       <c r="AI2">
-        <v>29.99601110190295</v>
+        <v>28.71515573894197</v>
       </c>
       <c r="AJ2">
-        <v>29.13229890621038</v>
+        <v>27.92606201754955</v>
       </c>
       <c r="AK2">
-        <v>25.24489824867418</v>
+        <v>26.1460235114988</v>
       </c>
       <c r="AL2">
-        <v>27.61683398528322</v>
+        <v>25.2652727354459</v>
       </c>
       <c r="AM2">
-        <v>24.01613120522976</v>
+        <v>31.11503117014037</v>
       </c>
       <c r="AN2">
-        <v>25.57258121921141</v>
+        <v>28.02099622582413</v>
       </c>
       <c r="AO2">
-        <v>28.55571182064207</v>
+        <v>28.35372862219386</v>
       </c>
       <c r="AP2">
-        <v>23.08225387251213</v>
+        <v>29.16846593321359</v>
       </c>
       <c r="AQ2">
-        <v>23.68804763110409</v>
+        <v>31.85216218224883</v>
       </c>
       <c r="AR2">
-        <v>22.73555266078533</v>
+        <v>25.97521582929753</v>
       </c>
       <c r="AS2">
-        <v>28.32638809999932</v>
+        <v>28.21927618038294</v>
       </c>
       <c r="AT2">
-        <v>29.73218541472778</v>
+        <v>26.97856292117898</v>
       </c>
       <c r="AU2">
-        <v>22.99445753189255</v>
+        <v>29.38221625187735</v>
       </c>
       <c r="AV2">
-        <v>25.04889558473057</v>
+        <v>25.36654192469072</v>
       </c>
       <c r="AW2">
-        <v>28.50863202460097</v>
+        <v>26.96076360067345</v>
       </c>
       <c r="AX2">
-        <v>29.43212294265194</v>
+        <v>29.09513434613467</v>
       </c>
       <c r="AY2">
-        <v>22.39368347456569</v>
+        <v>25.17782209178871</v>
       </c>
       <c r="AZ2">
-        <v>25.42784989395125</v>
+        <v>29.99009866386137</v>
       </c>
       <c r="BA2">
-        <v>28.14394312288834</v>
+        <v>26.00703868205059</v>
       </c>
       <c r="BB2">
-        <v>27.76658963062351</v>
+        <v>30.80179918770497</v>
       </c>
       <c r="BC2">
-        <v>27.11692277161279</v>
+        <v>25.71462901227605</v>
       </c>
       <c r="BD2">
-        <v>26.42296234509961</v>
+        <v>26.40674851823866</v>
       </c>
       <c r="BE2">
-        <v>26.33656977360365</v>
+        <v>28.93773549374538</v>
       </c>
       <c r="BF2">
-        <v>25.37043415151449</v>
+        <v>28.22476649946631</v>
       </c>
       <c r="BG2">
-        <v>25.20073133483785</v>
+        <v>31.14097251722282</v>
       </c>
       <c r="BH2">
-        <v>23.01335418451793</v>
+        <v>25.90903277016854</v>
       </c>
       <c r="BI2">
-        <v>28.17078808244205</v>
+        <v>28.85143772960353</v>
       </c>
       <c r="BJ2">
-        <v>22.9843715480361</v>
+        <v>30.52540665151073</v>
       </c>
       <c r="BK2">
-        <v>29.11221144954111</v>
+        <v>28.24460769358128</v>
       </c>
       <c r="BL2">
-        <v>26.43118909420742</v>
+        <v>30.205000095576</v>
       </c>
       <c r="BM2">
-        <v>25.23977796899796</v>
+        <v>31.85582711688919</v>
       </c>
       <c r="BN2">
-        <v>22.75051232380786</v>
+        <v>25.79834953154578</v>
       </c>
       <c r="BO2">
-        <v>24.05056180203328</v>
+        <v>27.12786248480584</v>
       </c>
       <c r="BP2">
-        <v>22.98076366389982</v>
+        <v>29.14101722905866</v>
       </c>
       <c r="BQ2">
-        <v>24.57845852019062</v>
+        <v>28.97563829346343</v>
       </c>
       <c r="BR2">
-        <v>26.98418121804542</v>
+        <v>31.69114581848634</v>
       </c>
       <c r="BS2">
-        <v>23.96469720638077</v>
+        <v>28.70608757620431</v>
       </c>
       <c r="BT2">
-        <v>29.04376955942822</v>
+        <v>30.47613373157135</v>
       </c>
       <c r="BU2">
-        <v>23.74187396025746</v>
+        <v>29.92957106157992</v>
       </c>
       <c r="BV2">
-        <v>22.91350379536905</v>
+        <v>28.2626989991864</v>
       </c>
       <c r="BW2">
-        <v>22.53034867413128</v>
+        <v>30.58176427866813</v>
       </c>
       <c r="BX2">
-        <v>28.5782040525297</v>
+        <v>25.45516417737926</v>
       </c>
       <c r="BY2">
-        <v>22.22069532268211</v>
+        <v>28.70275439186251</v>
       </c>
       <c r="BZ2">
-        <v>23.84926568705432</v>
+        <v>26.38674837306541</v>
       </c>
       <c r="CA2">
-        <v>26.02688718983005</v>
+        <v>29.46569018678803</v>
       </c>
       <c r="CB2">
-        <v>28.09692161325714</v>
+        <v>25.65293304037385</v>
       </c>
       <c r="CC2">
-        <v>24.36801324920068</v>
+        <v>28.37008400558791</v>
       </c>
       <c r="CD2">
-        <v>23.4249802062182</v>
+        <v>31.11397932017939</v>
       </c>
       <c r="CE2">
-        <v>29.01096605864386</v>
+        <v>25.51024597930886</v>
       </c>
       <c r="CF2">
-        <v>29.7135118833765</v>
+        <v>30.45161814044005</v>
       </c>
       <c r="CG2">
-        <v>26.77730596653429</v>
+        <v>29.88785511465515</v>
       </c>
       <c r="CH2">
-        <v>23.54241723535393</v>
+        <v>27.72914738414395</v>
       </c>
       <c r="CI2">
-        <v>26.72881750766596</v>
+        <v>29.52992288650606</v>
       </c>
       <c r="CJ2">
-        <v>22.32041667545074</v>
+        <v>27.2744412356708</v>
       </c>
       <c r="CK2">
-        <v>26.33102614038242</v>
+        <v>29.95038537160035</v>
       </c>
       <c r="CL2">
-        <v>24.02384047812561</v>
+        <v>27.68417143353232</v>
       </c>
       <c r="CM2">
-        <v>29.48683012760271</v>
+        <v>28.46412610784031</v>
       </c>
       <c r="CN2">
-        <v>26.52114040414374</v>
+        <v>28.8557417354627</v>
       </c>
       <c r="CO2">
-        <v>24.00622168274062</v>
+        <v>29.22508778990938</v>
       </c>
       <c r="CP2">
-        <v>27.11559654359714</v>
+        <v>27.56694775691789</v>
       </c>
       <c r="CQ2">
-        <v>28.29751445338126</v>
+        <v>31.72504235818282</v>
       </c>
       <c r="CR2">
-        <v>29.16442264648935</v>
+        <v>28.75865120562743</v>
       </c>
       <c r="CS2">
-        <v>28.63296339648578</v>
+        <v>29.10175814930503</v>
       </c>
       <c r="CT2">
-        <v>28.65872294669667</v>
+        <v>31.77107767748306</v>
       </c>
       <c r="CU2">
-        <v>22.99498539555237</v>
+        <v>26.44831336528125</v>
       </c>
       <c r="CV2">
-        <v>23.52539418841133</v>
+        <v>27.06769806993045</v>
       </c>
       <c r="CW2">
-        <v>22.70425189965358</v>
+        <v>28.65000718825079</v>
       </c>
     </row>
     <row r="3" spans="1:101">
@@ -984,304 +984,304 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7419271427054064</v>
+        <v>0.6623132873402203</v>
       </c>
       <c r="C3">
-        <v>0.694042027736828</v>
+        <v>0.7308217184880405</v>
       </c>
       <c r="D3">
-        <v>0.6873874040202533</v>
+        <v>0.6926864205942355</v>
       </c>
       <c r="E3">
-        <v>0.7691911223180685</v>
+        <v>0.7919149114965431</v>
       </c>
       <c r="F3">
-        <v>0.7128584296490982</v>
+        <v>0.6510093412677307</v>
       </c>
       <c r="G3">
-        <v>0.9000010610861042</v>
+        <v>0.7778313930290441</v>
       </c>
       <c r="H3">
-        <v>0.6831561313071978</v>
+        <v>0.9496700910696513</v>
       </c>
       <c r="I3">
-        <v>0.8091312445626823</v>
+        <v>0.8710551516106804</v>
       </c>
       <c r="J3">
-        <v>0.90967671165805</v>
+        <v>0.7727974114442898</v>
       </c>
       <c r="K3">
-        <v>0.7724289657751796</v>
+        <v>0.7458607074387216</v>
       </c>
       <c r="L3">
-        <v>0.9316523027758623</v>
+        <v>0.8756500102305137</v>
       </c>
       <c r="M3">
-        <v>0.6246371136069674</v>
+        <v>0.9486531338284805</v>
       </c>
       <c r="N3">
-        <v>0.7754883425459687</v>
+        <v>0.7544146339187596</v>
       </c>
       <c r="O3">
-        <v>0.8580837107943694</v>
+        <v>0.95255733657241</v>
       </c>
       <c r="P3">
-        <v>0.6427344120858907</v>
+        <v>0.9501088476193434</v>
       </c>
       <c r="Q3">
-        <v>0.779861664334723</v>
+        <v>0.7145248056114014</v>
       </c>
       <c r="R3">
-        <v>0.8511432979545002</v>
+        <v>0.6878686515523014</v>
       </c>
       <c r="S3">
-        <v>0.8533634822715268</v>
+        <v>0.7803962503477766</v>
       </c>
       <c r="T3">
-        <v>0.6412275619603859</v>
+        <v>0.9772903985011672</v>
       </c>
       <c r="U3">
-        <v>0.6893590304868902</v>
+        <v>0.7453230933539632</v>
       </c>
       <c r="V3">
-        <v>0.6923700202652306</v>
+        <v>0.7855324912886483</v>
       </c>
       <c r="W3">
-        <v>0.7053709691983728</v>
+        <v>0.8907366812844917</v>
       </c>
       <c r="X3">
-        <v>0.7556160734840895</v>
+        <v>0.966543504047632</v>
       </c>
       <c r="Y3">
-        <v>0.7989318989505805</v>
+        <v>0.8126033286956001</v>
       </c>
       <c r="Z3">
-        <v>0.6024981305430923</v>
+        <v>0.8183464791465991</v>
       </c>
       <c r="AA3">
-        <v>0.6859986397830972</v>
+        <v>0.838445939412186</v>
       </c>
       <c r="AB3">
-        <v>0.8410314346997918</v>
+        <v>0.95766942230268</v>
       </c>
       <c r="AC3">
-        <v>0.7217192222242371</v>
+        <v>0.7565805752342761</v>
       </c>
       <c r="AD3">
-        <v>0.7581899109103571</v>
+        <v>0.8396927196012188</v>
       </c>
       <c r="AE3">
-        <v>0.8564725979419889</v>
+        <v>0.6537404063726938</v>
       </c>
       <c r="AF3">
-        <v>0.689502787146273</v>
+        <v>0.9747862843253432</v>
       </c>
       <c r="AG3">
-        <v>0.8181738381908512</v>
+        <v>0.7960005632621502</v>
       </c>
       <c r="AH3">
-        <v>0.7889796161724452</v>
+        <v>0.687460912526259</v>
       </c>
       <c r="AI3">
-        <v>0.783660927408184</v>
+        <v>0.8855347175293971</v>
       </c>
       <c r="AJ3">
-        <v>0.7119443235841031</v>
+        <v>0.6909235551152731</v>
       </c>
       <c r="AK3">
-        <v>0.6391889007356673</v>
+        <v>0.9101252502753099</v>
       </c>
       <c r="AL3">
-        <v>0.6263944285137807</v>
+        <v>0.9220525958434339</v>
       </c>
       <c r="AM3">
-        <v>0.8346637349600278</v>
+        <v>0.9894267014171028</v>
       </c>
       <c r="AN3">
-        <v>0.7401898487978228</v>
+        <v>0.7133084798458879</v>
       </c>
       <c r="AO3">
-        <v>0.7941535158307742</v>
+        <v>0.7686940606642383</v>
       </c>
       <c r="AP3">
-        <v>0.6380500213680507</v>
+        <v>0.6906010466518469</v>
       </c>
       <c r="AQ3">
-        <v>0.6835952375905513</v>
+        <v>0.9200204247872699</v>
       </c>
       <c r="AR3">
-        <v>0.8248381630441723</v>
+        <v>0.6887903450858307</v>
       </c>
       <c r="AS3">
-        <v>0.7753725784590632</v>
+        <v>0.8732178437909164</v>
       </c>
       <c r="AT3">
-        <v>0.7144471866342064</v>
+        <v>0.6756181400894082</v>
       </c>
       <c r="AU3">
-        <v>0.6496242965550768</v>
+        <v>0.7660605668701101</v>
       </c>
       <c r="AV3">
-        <v>0.7338456999287764</v>
+        <v>0.9584967122148689</v>
       </c>
       <c r="AW3">
-        <v>0.9721127828771334</v>
+        <v>0.6770500119790528</v>
       </c>
       <c r="AX3">
-        <v>0.9043214151035353</v>
+        <v>0.8647714558039934</v>
       </c>
       <c r="AY3">
-        <v>0.7273808622546094</v>
+        <v>0.8646538151187053</v>
       </c>
       <c r="AZ3">
-        <v>0.9283798808739461</v>
+        <v>0.8350058484433973</v>
       </c>
       <c r="BA3">
-        <v>0.7765384796351904</v>
+        <v>0.9641092986610806</v>
       </c>
       <c r="BB3">
-        <v>0.8781389021675521</v>
+        <v>0.9843286691898481</v>
       </c>
       <c r="BC3">
-        <v>0.8503323097740909</v>
+        <v>0.9834398223134373</v>
       </c>
       <c r="BD3">
-        <v>0.9897663156038725</v>
+        <v>0.8952139941931313</v>
       </c>
       <c r="BE3">
-        <v>0.7905457707870728</v>
+        <v>0.7730624577123187</v>
       </c>
       <c r="BF3">
-        <v>0.7519877035608953</v>
+        <v>0.7245471952359578</v>
       </c>
       <c r="BG3">
-        <v>0.9462279916861616</v>
+        <v>0.7535380194730259</v>
       </c>
       <c r="BH3">
-        <v>0.9195082578893672</v>
+        <v>0.9406312672978352</v>
       </c>
       <c r="BI3">
-        <v>0.8797293103861172</v>
+        <v>0.8362446742475986</v>
       </c>
       <c r="BJ3">
-        <v>0.6069049893933746</v>
+        <v>0.7850698069128489</v>
       </c>
       <c r="BK3">
-        <v>0.7718261353056491</v>
+        <v>0.965080838108936</v>
       </c>
       <c r="BL3">
-        <v>0.9377247886708218</v>
+        <v>0.9289344208166423</v>
       </c>
       <c r="BM3">
-        <v>0.7430721512767791</v>
+        <v>0.6907081249346778</v>
       </c>
       <c r="BN3">
-        <v>0.6157984057453672</v>
+        <v>0.6686275102112262</v>
       </c>
       <c r="BO3">
-        <v>0.7364464394492878</v>
+        <v>0.9407589590227068</v>
       </c>
       <c r="BP3">
-        <v>0.8737888606281081</v>
+        <v>0.8591403414243612</v>
       </c>
       <c r="BQ3">
-        <v>0.8306043657792705</v>
+        <v>0.6869939004478656</v>
       </c>
       <c r="BR3">
-        <v>0.6176097234833486</v>
+        <v>0.6888515081161889</v>
       </c>
       <c r="BS3">
-        <v>0.9117036382666603</v>
+        <v>0.8659823900150347</v>
       </c>
       <c r="BT3">
-        <v>0.6778675020427454</v>
+        <v>0.7849066357093193</v>
       </c>
       <c r="BU3">
-        <v>0.7163005438633147</v>
+        <v>0.9750234614796631</v>
       </c>
       <c r="BV3">
-        <v>0.711927674604519</v>
+        <v>0.7553550779840856</v>
       </c>
       <c r="BW3">
-        <v>0.9014639110657199</v>
+        <v>0.6879205200583687</v>
       </c>
       <c r="BX3">
-        <v>0.6505800732512005</v>
+        <v>0.9462448375047466</v>
       </c>
       <c r="BY3">
-        <v>0.6592917546260052</v>
+        <v>0.6788976763922291</v>
       </c>
       <c r="BZ3">
-        <v>0.6035496033277453</v>
+        <v>0.7450750386206612</v>
       </c>
       <c r="CA3">
-        <v>0.8477385624996925</v>
+        <v>0.9785833716499596</v>
       </c>
       <c r="CB3">
-        <v>0.9811627077958605</v>
+        <v>0.7904273579035751</v>
       </c>
       <c r="CC3">
-        <v>0.631934268528469</v>
+        <v>0.6796937836680232</v>
       </c>
       <c r="CD3">
-        <v>0.8216045841133115</v>
+        <v>0.6620249378272808</v>
       </c>
       <c r="CE3">
-        <v>0.67367377838414</v>
+        <v>0.8762688483421976</v>
       </c>
       <c r="CF3">
-        <v>0.8868730212518677</v>
+        <v>0.8187690644031087</v>
       </c>
       <c r="CG3">
-        <v>0.7416524997940477</v>
+        <v>0.6536778140343728</v>
       </c>
       <c r="CH3">
-        <v>0.6805274606921933</v>
+        <v>0.9070401833783143</v>
       </c>
       <c r="CI3">
-        <v>0.8357535712669728</v>
+        <v>0.6786450471585372</v>
       </c>
       <c r="CJ3">
-        <v>0.6583275923240401</v>
+        <v>0.6750844749253377</v>
       </c>
       <c r="CK3">
-        <v>0.7111178984067081</v>
+        <v>0.9816799109339438</v>
       </c>
       <c r="CL3">
-        <v>0.6027261055451811</v>
+        <v>0.9204081756820537</v>
       </c>
       <c r="CM3">
-        <v>0.6812387968069213</v>
+        <v>0.9092361390211268</v>
       </c>
       <c r="CN3">
-        <v>0.8175992008220812</v>
+        <v>0.861480826833585</v>
       </c>
       <c r="CO3">
-        <v>0.7024122860197762</v>
+        <v>0.9072805282559609</v>
       </c>
       <c r="CP3">
-        <v>0.9814476617238153</v>
+        <v>0.7807062432622743</v>
       </c>
       <c r="CQ3">
-        <v>0.9682036783762309</v>
+        <v>0.6534679490934804</v>
       </c>
       <c r="CR3">
-        <v>0.9240212498899397</v>
+        <v>0.970900804907149</v>
       </c>
       <c r="CS3">
-        <v>0.8740626793933781</v>
+        <v>0.751552308040242</v>
       </c>
       <c r="CT3">
-        <v>0.8486172024482563</v>
+        <v>0.8030695323993595</v>
       </c>
       <c r="CU3">
-        <v>0.6965338156298647</v>
+        <v>0.9435045145086516</v>
       </c>
       <c r="CV3">
-        <v>0.6234223643882316</v>
+        <v>0.8702980153614643</v>
       </c>
       <c r="CW3">
-        <v>0.8725421565438554</v>
+        <v>0.9629262396624206</v>
       </c>
     </row>
     <row r="4" spans="1:101">
@@ -1289,304 +1289,304 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1115.429757686861</v>
+        <v>942.308918713828</v>
       </c>
       <c r="C4">
-        <v>1172.399490832109</v>
+        <v>742.4038436305739</v>
       </c>
       <c r="D4">
-        <v>1027.364164316254</v>
+        <v>632.1668734647687</v>
       </c>
       <c r="E4">
-        <v>1254.27099112694</v>
+        <v>920.1221704416939</v>
       </c>
       <c r="F4">
-        <v>1307.224009712041</v>
+        <v>711.5268627738471</v>
       </c>
       <c r="G4">
-        <v>1177.861967813209</v>
+        <v>838.7124374289417</v>
       </c>
       <c r="H4">
-        <v>1193.60513537632</v>
+        <v>653.8110509743523</v>
       </c>
       <c r="I4">
-        <v>1061.929406447552</v>
+        <v>942.8237761644538</v>
       </c>
       <c r="J4">
-        <v>1296.335674817522</v>
+        <v>626.6901417651626</v>
       </c>
       <c r="K4">
-        <v>1075.314086715407</v>
+        <v>743.3613801685361</v>
       </c>
       <c r="L4">
-        <v>1053.647638458108</v>
+        <v>843.4448343423611</v>
       </c>
       <c r="M4">
-        <v>1109.644044579553</v>
+        <v>779.1940138115679</v>
       </c>
       <c r="N4">
-        <v>1036.098374501322</v>
+        <v>778.1506896868875</v>
       </c>
       <c r="O4">
-        <v>1234.826354511395</v>
+        <v>1023.440242359498</v>
       </c>
       <c r="P4">
-        <v>1114.79754872657</v>
+        <v>808.4572565208767</v>
       </c>
       <c r="Q4">
-        <v>1211.211813374971</v>
+        <v>747.4995196646986</v>
       </c>
       <c r="R4">
-        <v>1346.717029151963</v>
+        <v>985.2091073797343</v>
       </c>
       <c r="S4">
-        <v>1168.352967751496</v>
+        <v>869.035830935378</v>
       </c>
       <c r="T4">
-        <v>1122.113782332762</v>
+        <v>762.0905728019166</v>
       </c>
       <c r="U4">
-        <v>1058.885344269615</v>
+        <v>706.2138237388926</v>
       </c>
       <c r="V4">
-        <v>1232.525931170685</v>
+        <v>991.2285705322041</v>
       </c>
       <c r="W4">
-        <v>1158.501244936634</v>
+        <v>825.2698224104055</v>
       </c>
       <c r="X4">
-        <v>1307.298462758205</v>
+        <v>760.9140158131557</v>
       </c>
       <c r="Y4">
-        <v>1123.712639692782</v>
+        <v>1013.835961222832</v>
       </c>
       <c r="Z4">
-        <v>1108.461200644205</v>
+        <v>912.0087439408372</v>
       </c>
       <c r="AA4">
-        <v>1042.649501649967</v>
+        <v>702.8243093742595</v>
       </c>
       <c r="AB4">
-        <v>1321.566276494091</v>
+        <v>833.2109408308119</v>
       </c>
       <c r="AC4">
-        <v>1173.917195891012</v>
+        <v>797.1353387593207</v>
       </c>
       <c r="AD4">
-        <v>1107.167188933479</v>
+        <v>1014.901346050643</v>
       </c>
       <c r="AE4">
-        <v>1085.646426269105</v>
+        <v>800.7694254636655</v>
       </c>
       <c r="AF4">
-        <v>1142.79703251965</v>
+        <v>788.9150143950245</v>
       </c>
       <c r="AG4">
-        <v>1250.695618836513</v>
+        <v>788.8115957819367</v>
       </c>
       <c r="AH4">
-        <v>1262.262672170155</v>
+        <v>698.0017305933281</v>
       </c>
       <c r="AI4">
-        <v>1201.986727869767</v>
+        <v>824.5601691116922</v>
       </c>
       <c r="AJ4">
-        <v>1255.913505971368</v>
+        <v>779.8649398080235</v>
       </c>
       <c r="AK4">
-        <v>1358.160182513535</v>
+        <v>683.6145454638482</v>
       </c>
       <c r="AL4">
-        <v>1071.445132531451</v>
+        <v>638.3340063964658</v>
       </c>
       <c r="AM4">
-        <v>1339.970516612981</v>
+        <v>968.1451647188065</v>
       </c>
       <c r="AN4">
-        <v>1166.82360347943</v>
+        <v>785.1762294876504</v>
       </c>
       <c r="AO4">
-        <v>1333.141102548334</v>
+        <v>803.9339267810155</v>
       </c>
       <c r="AP4">
-        <v>1176.23350131894</v>
+        <v>850.7994048970417</v>
       </c>
       <c r="AQ4">
-        <v>1039.714818378377</v>
+        <v>1014.560235684282</v>
       </c>
       <c r="AR4">
-        <v>1146.237715687193</v>
+        <v>674.7118373785889</v>
       </c>
       <c r="AS4">
-        <v>1212.642013407992</v>
+        <v>796.3275481447281</v>
       </c>
       <c r="AT4">
-        <v>1319.196338279259</v>
+        <v>727.8428572920135</v>
       </c>
       <c r="AU4">
-        <v>1127.156459877254</v>
+        <v>863.3146318720852</v>
       </c>
       <c r="AV4">
-        <v>1204.926135084689</v>
+        <v>643.4614492170921</v>
       </c>
       <c r="AW4">
-        <v>1171.4066952073</v>
+        <v>726.8827739313983</v>
       </c>
       <c r="AX4">
-        <v>1182.507366308632</v>
+        <v>846.5268426196254</v>
       </c>
       <c r="AY4">
-        <v>1032.199102682868</v>
+        <v>633.9227252857634</v>
       </c>
       <c r="AZ4">
-        <v>1224.187658765202</v>
+        <v>899.4060178681393</v>
       </c>
       <c r="BA4">
-        <v>1054.557847693322</v>
+        <v>676.3660610096756</v>
       </c>
       <c r="BB4">
-        <v>1216.15944782074</v>
+        <v>948.7508331997022</v>
       </c>
       <c r="BC4">
-        <v>1050.838676725265</v>
+        <v>661.2421452389892</v>
       </c>
       <c r="BD4">
-        <v>1154.855706507768</v>
+        <v>697.3163673054997</v>
       </c>
       <c r="BE4">
-        <v>1109.330739184426</v>
+        <v>837.3925355059713</v>
       </c>
       <c r="BF4">
-        <v>1357.27469548317</v>
+        <v>796.6374439493954</v>
       </c>
       <c r="BG4">
-        <v>1196.638240176344</v>
+        <v>969.7601693184272</v>
       </c>
       <c r="BH4">
-        <v>1345.391874941107</v>
+        <v>671.2779790856671</v>
       </c>
       <c r="BI4">
-        <v>1162.738171335531</v>
+        <v>832.40545906519</v>
       </c>
       <c r="BJ4">
-        <v>1292.766770683506</v>
+        <v>931.8004512400954</v>
       </c>
       <c r="BK4">
-        <v>1131.561031766511</v>
+        <v>797.7578637643109</v>
       </c>
       <c r="BL4">
-        <v>1042.01759941797</v>
+        <v>912.3420307737464</v>
       </c>
       <c r="BM4">
-        <v>1095.538639152735</v>
+        <v>1014.793721301133</v>
       </c>
       <c r="BN4">
-        <v>1203.792598490651</v>
+        <v>665.5548385518083</v>
       </c>
       <c r="BO4">
-        <v>1254.736919846257</v>
+        <v>735.9209229945362</v>
       </c>
       <c r="BP4">
-        <v>1256.2855385195</v>
+        <v>849.1988851442937</v>
       </c>
       <c r="BQ4">
-        <v>1119.002031621601</v>
+        <v>839.5876145136245</v>
       </c>
       <c r="BR4">
-        <v>1064.363574854385</v>
+        <v>1004.328723288564</v>
       </c>
       <c r="BS4">
-        <v>1268.94866317091</v>
+        <v>824.0394639327113</v>
       </c>
       <c r="BT4">
-        <v>1264.815524154181</v>
+        <v>928.7947272246212</v>
       </c>
       <c r="BU4">
-        <v>1368.735277658192</v>
+        <v>895.7792239301621</v>
       </c>
       <c r="BV4">
-        <v>1082.225324719009</v>
+        <v>798.780154718612</v>
       </c>
       <c r="BW4">
-        <v>1208.079431172415</v>
+        <v>935.2443063960221</v>
       </c>
       <c r="BX4">
-        <v>1315.883159744132</v>
+        <v>647.9653832973321</v>
       </c>
       <c r="BY4">
-        <v>1302.883626639654</v>
+        <v>823.8481096795828</v>
       </c>
       <c r="BZ4">
-        <v>1202.325276329991</v>
+        <v>696.2604897034698</v>
       </c>
       <c r="CA4">
-        <v>1273.907009528684</v>
+        <v>868.2268981837767</v>
       </c>
       <c r="CB4">
-        <v>1303.017597729194</v>
+        <v>658.0729735739042</v>
       </c>
       <c r="CC4">
-        <v>1134.559402494932</v>
+        <v>804.8616664841147</v>
       </c>
       <c r="CD4">
-        <v>1126.800073698699</v>
+        <v>968.0797091365509</v>
       </c>
       <c r="CE4">
-        <v>1030.560183902806</v>
+        <v>650.7726499248437</v>
       </c>
       <c r="CF4">
-        <v>1284.888648918715</v>
+        <v>927.3010473711776</v>
       </c>
       <c r="CG4">
-        <v>1262.242385624387</v>
+        <v>893.283883354618</v>
       </c>
       <c r="CH4">
-        <v>1289.739734469929</v>
+        <v>768.9056146515775</v>
       </c>
       <c r="CI4">
-        <v>1279.095777783128</v>
+        <v>872.0163456829945</v>
       </c>
       <c r="CJ4">
-        <v>1038.363194179405</v>
+        <v>743.8951447180599</v>
       </c>
       <c r="CK4">
-        <v>1090.030168759932</v>
+        <v>897.025583907372</v>
       </c>
       <c r="CL4">
-        <v>1199.248936167442</v>
+        <v>766.4133479612068</v>
       </c>
       <c r="CM4">
-        <v>1136.714041517446</v>
+        <v>810.2064750830364</v>
       </c>
       <c r="CN4">
-        <v>1207.0086592299</v>
+        <v>832.6538311037237</v>
       </c>
       <c r="CO4">
-        <v>1145.937935946479</v>
+        <v>854.1057563279106</v>
       </c>
       <c r="CP4">
-        <v>1314.395891896681</v>
+        <v>759.9366086326405</v>
       </c>
       <c r="CQ4">
-        <v>1289.905412229611</v>
+        <v>1006.478312628494</v>
       </c>
       <c r="CR4">
-        <v>1113.968320710615</v>
+        <v>827.0600191669363</v>
       </c>
       <c r="CS4">
-        <v>1201.150845705804</v>
+        <v>846.9123273806416</v>
       </c>
       <c r="CT4">
-        <v>1214.648834938898</v>
+        <v>1009.401376788663</v>
       </c>
       <c r="CU4">
-        <v>1186.560207497741</v>
+        <v>699.5132798681149</v>
       </c>
       <c r="CV4">
-        <v>1326.988097242999</v>
+        <v>732.6602788049169</v>
       </c>
       <c r="CW4">
-        <v>1329.65527487554</v>
+        <v>820.8229118868219</v>
       </c>
     </row>
   </sheetData>
